--- a/TOKEN主控板/RFID控制板/Output/PCB_Project2.xlsx
+++ b/TOKEN主控板/RFID控制板/Output/PCB_Project2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="85">
   <si>
     <t>Comment</t>
   </si>
@@ -242,13 +242,85 @@
   </si>
   <si>
     <t>XTAL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>材料单价</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>材料小计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加工费单价</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>焊点数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工费小计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总焊点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裸板：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工费小计：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料小计：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +342,20 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -285,7 +371,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -308,24 +394,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,17 +737,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.5" customWidth="1"/>
     <col min="2" max="6" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,445 +769,950 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="6">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="H2" s="6">
+        <f>G2*F2</f>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="I2" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J2" s="6">
+        <v>2</v>
+      </c>
+      <c r="K2" s="6">
+        <f>J2*F2</f>
+        <v>8</v>
+      </c>
+      <c r="L2" s="6">
+        <f>K2*I2</f>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="G3" s="6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H23" si="0">G3*F3</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I3" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J3" s="6">
+        <v>2</v>
+      </c>
+      <c r="K3" s="6">
+        <f t="shared" ref="K3:K23" si="1">J3*F3</f>
+        <v>2</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" ref="L3:L23" si="2">K3*I3</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="G4" s="6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" si="0"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="I4" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J4" s="6">
+        <v>2</v>
+      </c>
+      <c r="K4" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" si="2"/>
+        <v>0.21000000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="G5" s="6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="0"/>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I5" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="21" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="G6" s="6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="I6" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J6" s="6">
+        <v>2</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="2"/>
+        <v>0.49000000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="G7" s="6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="0"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="I7" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="2"/>
+        <v>0.21000000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="G8" s="6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="0"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="I8" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J8" s="6">
+        <v>2</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="2"/>
+        <v>0.21000000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="21" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="G9" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="I9" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J9" s="6">
+        <v>2</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" si="2"/>
+        <v>0.42000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="G10" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I10" s="6">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J10" s="6">
+        <v>2</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="2"/>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="F11" s="5">
+        <v>2</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.97</v>
+      </c>
+      <c r="I11" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J11" s="6">
+        <v>2</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="F12" s="5">
+        <v>2</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.97</v>
+      </c>
+      <c r="I12" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J12" s="6">
+        <v>2</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="F13" s="5">
+        <v>2</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4179999999999999</v>
+      </c>
+      <c r="I13" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J13" s="6">
+        <v>2</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+      <c r="G14" s="6">
+        <v>2</v>
+      </c>
+      <c r="H14" s="6">
+        <f>G14*F14</f>
+        <v>2</v>
+      </c>
+      <c r="I14" s="6">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J14" s="6">
+        <v>14</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="2"/>
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="21" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
+      <c r="G15" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="0"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="I15" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J15" s="6">
+        <v>2</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="2"/>
+        <v>0.42000000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
+      <c r="G16" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="I16" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J16" s="6">
+        <v>2</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L16" s="6">
+        <f t="shared" si="2"/>
+        <v>0.35000000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+      <c r="G17" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I17" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J17" s="6">
+        <v>2</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
+      <c r="G18" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I18" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J18" s="6">
+        <v>2</v>
+      </c>
+      <c r="K18" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
+      <c r="G19" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I19" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J19" s="6">
+        <v>2</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
+      <c r="G20" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I20" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J20" s="6">
+        <v>2</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
+      <c r="G21" s="6">
+        <v>1.95</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="0"/>
+        <v>9.75</v>
+      </c>
+      <c r="I21" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J21" s="6">
+        <v>4</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="2"/>
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
+      <c r="G22" s="6">
+        <v>5</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I22" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J22" s="6">
+        <v>32</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="2"/>
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="5">
         <v>1</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I23" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J23" s="6">
+        <v>2</v>
+      </c>
+      <c r="K23" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L23" s="6">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="K24" t="s">
+        <v>83</v>
+      </c>
+      <c r="L24">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25">
+        <v>34.270000000000003</v>
       </c>
     </row>
   </sheetData>
